--- a/Documents/単体テスト仕様書(お弁当注文システム).xlsx
+++ b/Documents/単体テスト仕様書(お弁当注文システム).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="888"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="888"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="166" r:id="rId1"/>
@@ -20,8 +20,64 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tensy</author>
+  </authors>
+  <commentList>
+    <comment ref="H20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>tensy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+正常なユーザーIDとパスワードのリストが必要</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://127.0.0.1/test_exception</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H63" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>https://127.0.0.1/test_exception</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="176">
   <si>
     <t>単体テスト仕様書</t>
   </si>
@@ -60,11 +116,29 @@
   </si>
   <si>
     <r>
-      <t>合格：〇、不合格：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
+      <t>合格：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>〇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、不合格：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="128"/>
       </rPr>
@@ -96,58 +170,73 @@
     <t>画面表示</t>
   </si>
   <si>
-    <t>TOPページを正常に表示できる。</t>
-  </si>
-  <si>
-    <t>https://127.0.0.1にアクセスする</t>
+    <t>TOPページ表示確認</t>
+  </si>
+  <si>
+    <t>TOPページにアクセスする</t>
+  </si>
+  <si>
+    <t>https://127.0.0.1</t>
   </si>
   <si>
     <t>1-1</t>
   </si>
   <si>
-    <t>デスクトップパソコン</t>
+    <t>デスクトップパソコン画面確認</t>
+  </si>
+  <si>
+    <t>デスクトップパソコンのモニタで確認する</t>
   </si>
   <si>
     <t>1-1-1</t>
   </si>
   <si>
-    <t>OS:　WIndows　かつ　ブラウザ：Chrome</t>
+    <t>　OS:　WIndows　かつ　ブラウザ：Chrome</t>
+  </si>
+  <si>
+    <t>表示やデザインがおかしくないか？文字化けしないか？</t>
   </si>
   <si>
     <t>1-1-2</t>
   </si>
   <si>
-    <t>OS:　WIndows　かつ　ブラウザ：Edge</t>
+    <t>　OS:　WIndows　かつ　ブラウザ：Edge</t>
   </si>
   <si>
     <t>1-1-3</t>
   </si>
   <si>
-    <t>OS:　MacOS　かつ　ブラウザ：Safari</t>
+    <t>　OS:　MacOS　かつ　ブラウザ：Safari</t>
+  </si>
+  <si>
+    <t>省略可</t>
   </si>
   <si>
     <t>1-2</t>
   </si>
   <si>
-    <t>スマートフォン</t>
+    <t>スマートフォン画面確認（レスポンシブデザイン対応確認）</t>
+  </si>
+  <si>
+    <t>スマートフォンのディスプレイで確認する</t>
   </si>
   <si>
     <t>1-2-1-1</t>
   </si>
   <si>
-    <t>OS:　iOS　かつ　ブラウザ：Safari</t>
+    <t>　OS:　iOS　かつ　ブラウザ：Safari</t>
   </si>
   <si>
     <t>1-2-1-2</t>
   </si>
   <si>
-    <t>画面を横に倒す</t>
+    <t>　画面を横に倒す</t>
   </si>
   <si>
     <t>1-2-2-1</t>
   </si>
   <si>
-    <t>OS:　iPadOS　かつ　ブラウザ：Safari</t>
+    <t>　OS:　iPadOS　かつ　ブラウザ：Safari</t>
   </si>
   <si>
     <t>1-2-2-2</t>
@@ -156,12 +245,15 @@
     <t>1-2-3-1</t>
   </si>
   <si>
-    <t>OS:　Android　かつ　ブラウザ：Chrome</t>
+    <t>　OS:　Android　かつ　ブラウザ：Chrome</t>
   </si>
   <si>
     <t>1-2-3-2</t>
   </si>
   <si>
+    <t>ログイン認証確認</t>
+  </si>
+  <si>
     <t>ユーザーログインは正常にできる。</t>
   </si>
   <si>
@@ -171,6 +263,9 @@
     <t>一般ユーザー(user)、発注者</t>
   </si>
   <si>
+    <t>TOPページにアクセスするとログイン画面に自動的に遷移する</t>
+  </si>
+  <si>
     <t>2-1-1</t>
   </si>
   <si>
@@ -180,7 +275,7 @@
     <t>　初回アクセス</t>
   </si>
   <si>
-    <t>TOPページにアクセスするとログイン画面に自動的に遷移する</t>
+    <t>スマホでNFCタグを読み込むと、ログイン画面を表示する。期待する結果：ログイン画面の表示</t>
   </si>
   <si>
     <t>2-1-2</t>
@@ -218,17 +313,256 @@
         <rFont val="游ゴシック"/>
         <charset val="128"/>
       </rPr>
+      <t>パスワードを入力して「ログイン」ボタンを押下する。期待する結果：注文完了画面の表示</t>
+    </r>
+  </si>
+  <si>
+    <t>2-1-3</t>
+  </si>
+  <si>
+    <t>　一般ユーザーのユーザー認証（異常系）</t>
+  </si>
+  <si>
+    <r>
+      <t>正常な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザーidと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>異常な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パスワードを入力して「ログイン」ボタンを押下する。期待する結果：エラー画面の表示</t>
+    </r>
+  </si>
+  <si>
+    <t>2-1-4</t>
+  </si>
+  <si>
+    <t>　２回目以降アクセス</t>
+  </si>
+  <si>
+    <t>ログイン画面を経ることなく自動的に遷移する。期待する結果：注文完了画面の表示</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>代表注文者(manager)、代表発注者</t>
+  </si>
+  <si>
+    <t>2-2-1</t>
+  </si>
+  <si>
+    <r>
+      <t>スマホでNFCタグを読み込むと、ログイン画面を表示する。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待する結果：ログイン画面の表示</t>
+    </r>
+  </si>
+  <si>
+    <t>2-2-2</t>
+  </si>
+  <si>
+    <t>　会社代表ユーザー認証（正常系）</t>
+  </si>
+  <si>
+    <r>
+      <t>ログイン画面で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正常な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザーidと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正常な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パスワードを入力して「ログイン」ボタンを押下する。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待する結果：会社代表メイン画面の表示</t>
+    </r>
+  </si>
+  <si>
+    <t>2-2-3</t>
+  </si>
+  <si>
+    <t>　会社代表ユーザー認証（異常系）</t>
+  </si>
+  <si>
+    <r>
+      <t>ログイン画面で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正常な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザーidと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>異常な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パスワードを入力して「ログイン」ボタンを押下する。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待する結果：エラー画面の表示</t>
+    </r>
+  </si>
+  <si>
+    <t>2-2-4</t>
+  </si>
+  <si>
+    <t>自動的に遷移する　画面：会社代表メイン画面</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>店舗ユーザー(shop-user)、お弁当屋、受注者</t>
+  </si>
+  <si>
+    <t>2-3-1</t>
+  </si>
+  <si>
+    <t>2-3-2</t>
+  </si>
+  <si>
+    <t>　店舗ユーザー認証（正常系）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正常な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザーidと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正常な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
       <t>パスワードを入力して「ログイン」ボタンを押下する</t>
     </r>
   </si>
   <si>
-    <t>2-1-3</t>
-  </si>
-  <si>
-    <t>　一般ユーザーのユーザー認証（異常系）</t>
-  </si>
-  <si>
-    <r>
+    <t>2-3-3</t>
+  </si>
+  <si>
+    <t>　店舗ユーザー認証（異常系）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
       <t>正常な</t>
     </r>
     <r>
@@ -258,52 +592,7 @@
     </r>
   </si>
   <si>
-    <t>2-1-4</t>
-  </si>
-  <si>
-    <t>　２回目以降アクセス</t>
-  </si>
-  <si>
-    <t>自動的に遷移する　画面：注文完了画面</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>代表注文者(manager)、代表発注者</t>
-  </si>
-  <si>
-    <t>2-2-1</t>
-  </si>
-  <si>
-    <t>2-2-2</t>
-  </si>
-  <si>
-    <t>　代表注文者のユーザー認証（正常系）</t>
-  </si>
-  <si>
-    <t>2-2-3</t>
-  </si>
-  <si>
-    <t>　代表注文者のユーザー認証（異常系）</t>
-  </si>
-  <si>
-    <t>2-2-4</t>
-  </si>
-  <si>
-    <t>自動的に遷移する　画面：会社代表メイン画面</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>お弁当屋(shop-user)、受注者</t>
-  </si>
-  <si>
-    <t>2-3-1</t>
-  </si>
-  <si>
-    <t>2-3-2</t>
+    <t>2-3-4</t>
   </si>
   <si>
     <t>自動的に遷移する　画面：店舗メイン画面</t>
@@ -321,7 +610,516 @@
     <t>2-4-2</t>
   </si>
   <si>
+    <t>　管理者ユーザー認証（正常系）</t>
+  </si>
+  <si>
+    <t>2-4-3</t>
+  </si>
+  <si>
+    <t>　管理者ユーザー認証（異常系）</t>
+  </si>
+  <si>
+    <t>2-4-4</t>
+  </si>
+  <si>
     <t>自動的に遷移する　画面：管理者画面</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>異常時動作確認</t>
+  </si>
+  <si>
+    <t>3-1-1</t>
+  </si>
+  <si>
+    <t>エラーページのテスト表示</t>
+  </si>
+  <si>
+    <r>
+      <t>エラーテスト用リンクをクリックする。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="0"/>
+      </rPr>
+      <t>期待する結果：エラーページの表示</t>
+    </r>
+  </si>
+  <si>
+    <t>3-1-2</t>
+  </si>
+  <si>
+    <t>ネットワーク異常時</t>
+  </si>
+  <si>
+    <r>
+      <t>ネットワークが途中で途切れた場合、エラー画面に遷移する。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待する結果：エラーページの表示</t>
+    </r>
+  </si>
+  <si>
+    <t>3-1-3</t>
+  </si>
+  <si>
+    <t>サーバ異常時</t>
+  </si>
+  <si>
+    <r>
+      <t>サーバやクラウドと接続できない場合、エラー画面に遷移する。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待する結果：エラーページの表示</t>
+    </r>
+  </si>
+  <si>
+    <t>3-1-4</t>
+  </si>
+  <si>
+    <t>SQLインジェクションの検証</t>
+  </si>
+  <si>
+    <r>
+      <t>ログイン画面で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="4"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>なユーザーidと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SQL文を混ぜた異常なパスワード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を入力して「ログイン」ボタンを押下する。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待する結果：エラー画面の表示</t>
+    </r>
+  </si>
+  <si>
+    <t>注文可能曜日の設定確認</t>
+  </si>
+  <si>
+    <t>注文可能曜日は、毎週月・火・水の3日に限られる。</t>
+  </si>
+  <si>
+    <t>方法：ユーザーで注文完了後、店舗ユーザーでログインする。</t>
+  </si>
+  <si>
+    <t>ビジネスロジック</t>
+  </si>
+  <si>
+    <t>注文実施と確認（月曜日）</t>
+  </si>
+  <si>
+    <r>
+      <t>一般ユーザーが月曜に注文する。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>店舗ユーザーは先週木曜までの注文を確認する。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待する結果：店舗ユーザーは一般ユーザーの注文をすべて表示する。</t>
+    </r>
+  </si>
+  <si>
+    <t>現在未実装</t>
+  </si>
+  <si>
+    <t>注文実施と確認（火曜日）</t>
+  </si>
+  <si>
+    <r>
+      <t>一般ユーザーが火曜に注文する。店舗ユーザーは月曜までの注文を確認する。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待する結果：店舗ユーザーは一般ユーザーの注文をすべて表示する。</t>
+    </r>
+  </si>
+  <si>
+    <t>注文実施と確認（水曜日）</t>
+  </si>
+  <si>
+    <r>
+      <t>一般ユーザーが水曜に注文する。店舗ユーザーは火曜までの注文を確認する。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待する結果：店舗ユーザーは一般ユーザーの注文をすべて表示する。</t>
+    </r>
+  </si>
+  <si>
+    <t>注文実施と確認（木曜日）</t>
+  </si>
+  <si>
+    <r>
+      <t>一般ユーザーが木曜に注文する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（これは来週月曜の注文になる）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>。店舗ユーザーは水曜までの注文を確認する。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待する結果：店舗ユーザーは一般ユーザーの注文をすべて表示する。</t>
+    </r>
+  </si>
+  <si>
+    <t>3-1-5</t>
+  </si>
+  <si>
+    <t>注文実施と確認（金曜日）</t>
+  </si>
+  <si>
+    <r>
+      <t>一般ユーザーが金曜に注文する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（これは来週月曜の注文になる）。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待する結果：店舗ユーザーは一般ユーザーの注文をすべて表示する</t>
+    </r>
+  </si>
+  <si>
+    <t>3-1-6</t>
+  </si>
+  <si>
+    <t>注文実施と確認（土曜日）</t>
+  </si>
+  <si>
+    <r>
+      <t>一般ユーザーが土曜に注文する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（これは来週月曜の注文になる）。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待する結果：店舗ユーザーは一般ユーザーの注文をすべて表示する</t>
+    </r>
+  </si>
+  <si>
+    <t>3-1-7</t>
+  </si>
+  <si>
+    <t>注文実施と確認（日曜日）</t>
+  </si>
+  <si>
+    <r>
+      <t>一般ユーザーは注文ができない。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待する結果：店舗ユーザーは一般ユーザーの注文をすべて表示する</t>
+    </r>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ユーザーの当日重複注文の禁止</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>重複注文の阻止</t>
+  </si>
+  <si>
+    <r>
+      <t>一般ユーザーで注文する。同日ユーザーが同じTOPページにアクセスする。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待する結果：「重複注文により注文できません」の文字が表示されて注文ができない。</t>
+    </r>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ロール別に画面表示確認</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>5-1-1</t>
+  </si>
+  <si>
+    <t>注文確定画面</t>
+  </si>
+  <si>
+    <t>期待する結果：正常表示している</t>
+  </si>
+  <si>
+    <t>5-1-2</t>
+  </si>
+  <si>
+    <t>機能</t>
+  </si>
+  <si>
+    <t>注文一覧表示</t>
+  </si>
+  <si>
+    <t>注文（自分のみ）が確認できるか？</t>
+  </si>
+  <si>
+    <t>5-1-3</t>
+  </si>
+  <si>
+    <t>注文内容確認</t>
+  </si>
+  <si>
+    <t>注文の値が正常であるか？</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>会社ユーザー(manager)、代表注文・発注者</t>
+  </si>
+  <si>
+    <t>5-2-1</t>
+  </si>
+  <si>
+    <t>会社代表メイン画面</t>
+  </si>
+  <si>
+    <t>5-2-2</t>
+  </si>
+  <si>
+    <t>注文チェック機能（ON)</t>
+  </si>
+  <si>
+    <r>
+      <t>注文にチェックを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>入れて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>保存ボタンを押下する。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待する結果：再ログインでチェックがついている。</t>
+    </r>
+  </si>
+  <si>
+    <t>5-2-3</t>
+  </si>
+  <si>
+    <t>注文チェック機能（OFF）</t>
+  </si>
+  <si>
+    <r>
+      <t>注文にチェックを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>外して</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>保存ボタンを押下する。</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>期待する結果：再ログインでチェックが外れている。</t>
+    </r>
+  </si>
+  <si>
+    <t>5-2-4</t>
+  </si>
+  <si>
+    <t>FAX送信機能</t>
+  </si>
+  <si>
+    <t>チェックした注文をFAXで店舗あてにFAX送信する</t>
+  </si>
+  <si>
+    <t>未実装</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>5-3-1</t>
+  </si>
+  <si>
+    <t>店舗メイン画面</t>
+  </si>
+  <si>
+    <t>5-3-2</t>
+  </si>
+  <si>
+    <t>注文（全会社から）が確認できるか？</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>5-4-1</t>
+  </si>
+  <si>
+    <t>管理者画面</t>
   </si>
 </sst>
 </file>
@@ -331,10 +1129,10 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -358,6 +1156,12 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -373,17 +1177,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,15 +1227,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,9 +1292,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -427,9 +1308,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -447,49 +1336,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,35 +1359,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <color theme="4"/>
       <name val="游ゴシック"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,13 +1398,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F0C5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,31 +1422,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,7 +1470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,7 +1488,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,73 +1566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,31 +1578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,21 +1697,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -888,17 +1713,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -915,6 +1733,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,168 +1793,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1159,7 +1999,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,28 +2008,34 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1228,14 +2074,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1630,12 +2488,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36:G36"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1668,17 +2526,17 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31" t="s">
+      <c r="M1" s="32"/>
+      <c r="N1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="47" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1699,17 +2557,17 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="33" t="s">
+      <c r="M2" s="32"/>
+      <c r="N2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="44"/>
+      <c r="Q2" s="48"/>
     </row>
     <row r="3" customHeight="1" spans="1:17">
       <c r="A3" s="9"/>
@@ -1749,11 +2607,11 @@
       <c r="H4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
       <c r="N4" s="11" t="s">
         <v>17</v>
       </c>
@@ -1782,63 +2640,61 @@
       <c r="H5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" customHeight="1" spans="1:17">
-      <c r="A6" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="A6" s="20"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
+      <c r="H6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
     </row>
     <row r="7" customHeight="1" spans="1:17">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" customHeight="1" spans="1:17">
       <c r="A8" s="20" t="s">
@@ -1854,168 +2710,176 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
+      <c r="H8" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" customHeight="1" spans="1:17">
       <c r="A9" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
     </row>
     <row r="10" customHeight="1" spans="1:17">
       <c r="A10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="44"/>
     </row>
     <row r="11" customHeight="1" spans="1:17">
-      <c r="A11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
+      <c r="A11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
     </row>
     <row r="12" customHeight="1" spans="1:17">
       <c r="A12" s="20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
+      <c r="H12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
     </row>
     <row r="13" customHeight="1" spans="1:17">
       <c r="A13" s="20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
     </row>
     <row r="14" customHeight="1" spans="1:17">
       <c r="A14" s="20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
     </row>
     <row r="15" customHeight="1" spans="1:17">
       <c r="A15" s="20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>20</v>
@@ -2027,439 +2891,447 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
     </row>
     <row r="16" customHeight="1" spans="1:17">
       <c r="A16" s="20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
     </row>
     <row r="17" customHeight="1" spans="1:17">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:17">
-      <c r="A18" s="23">
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:17">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:17">
+      <c r="A19" s="23">
         <v>2</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:17">
-      <c r="A19" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-    </row>
-    <row r="20" ht="13" customHeight="1" spans="1:17">
-      <c r="A20" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="21" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:17">
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:17">
+      <c r="A20" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:17">
       <c r="A21" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:17">
+      <c r="H21" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="1:17">
       <c r="A22" s="20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
-      <c r="H22" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:17">
+      <c r="H22" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+    </row>
+    <row r="23" ht="33" customHeight="1" spans="1:17">
       <c r="A23" s="20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
-      <c r="H23" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:17">
-      <c r="A24" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
+      <c r="H23" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="1:17">
+      <c r="A24" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
       <c r="N24" s="42"/>
       <c r="O24" s="42"/>
       <c r="P24" s="42"/>
       <c r="Q24" s="42"/>
     </row>
     <row r="25" customHeight="1" spans="1:17">
-      <c r="A25" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:17">
+      <c r="A25" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+    </row>
+    <row r="26" ht="30" customHeight="1" spans="1:17">
       <c r="A26" s="20" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
-      <c r="H26" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:17">
+      <c r="H26" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+    </row>
+    <row r="27" ht="47" customHeight="1" spans="1:17">
       <c r="A27" s="20" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:17">
+      <c r="H27" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+    </row>
+    <row r="28" ht="48" customHeight="1" spans="1:17">
       <c r="A28" s="20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
+      <c r="H28" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
     </row>
     <row r="29" customHeight="1" spans="1:17">
-      <c r="A29" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
+      <c r="A29" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="42"/>
     </row>
     <row r="30" customHeight="1" spans="1:17">
-      <c r="A30" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:17">
+      <c r="A30" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+    </row>
+    <row r="31" ht="28" customHeight="1" spans="1:17">
       <c r="A31" s="20" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
-      <c r="H31" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
+      <c r="H31" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
     </row>
     <row r="32" customHeight="1" spans="1:17">
-      <c r="A32" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
+      <c r="A32" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
       <c r="N32" s="42"/>
       <c r="O32" s="42"/>
       <c r="P32" s="42"/>
@@ -2467,150 +3339,188 @@
     </row>
     <row r="33" customHeight="1" spans="1:17">
       <c r="A33" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="20"/>
+        <v>85</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C33" s="21" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
+      <c r="H33" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
     </row>
     <row r="34" customHeight="1" spans="1:17">
       <c r="A34" s="20" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
-      <c r="H34" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
+      <c r="H34" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
     </row>
     <row r="35" customHeight="1" spans="1:17">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:17">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
+      <c r="A35" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+    </row>
+    <row r="36" ht="28" customHeight="1" spans="1:17">
+      <c r="A36" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
+      <c r="H36" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
     </row>
     <row r="37" customHeight="1" spans="1:17">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
+      <c r="A37" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
+      <c r="H37" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
     </row>
     <row r="38" customHeight="1" spans="1:17">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
+      <c r="A38" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>96</v>
+      </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
+      <c r="H38" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
     </row>
     <row r="39" customHeight="1" spans="1:17">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
+      <c r="A39" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
+      <c r="H39" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
     </row>
     <row r="40" customHeight="1" spans="1:17">
       <c r="A40" s="20"/>
@@ -2620,130 +3530,168 @@
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:17">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:17">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:17">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+    </row>
+    <row r="41" ht="15" customHeight="1" spans="1:17">
+      <c r="A41" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+    </row>
+    <row r="42" ht="13" customHeight="1" spans="1:17">
+      <c r="A42" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="1:17">
+      <c r="A43" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:17">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
+      <c r="H43" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+    </row>
+    <row r="44" ht="33" customHeight="1" spans="1:17">
+      <c r="A44" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:17">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
+      <c r="H44" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+    </row>
+    <row r="45" ht="34" customHeight="1" spans="1:17">
+      <c r="A45" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>109</v>
+      </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:17">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21"/>
+      <c r="H45" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+    </row>
+    <row r="46" ht="48" customHeight="1" spans="1:17">
+      <c r="A46" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
+      <c r="H46" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
     </row>
     <row r="47" customHeight="1" spans="1:17">
       <c r="A47" s="20"/>
@@ -2753,187 +3701,267 @@
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
     </row>
     <row r="48" customHeight="1" spans="1:17">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
+      <c r="A48" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
     </row>
     <row r="49" customHeight="1" spans="1:17">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:17">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
+      <c r="A49" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+    </row>
+    <row r="50" ht="51" customHeight="1" spans="1:17">
+      <c r="A50" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:17">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
+      <c r="H50" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q50" s="46"/>
+    </row>
+    <row r="51" ht="51" customHeight="1" spans="1:17">
+      <c r="A51" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>121</v>
+      </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:17">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21"/>
+      <c r="H51" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q51" s="46"/>
+    </row>
+    <row r="52" ht="51" customHeight="1" spans="1:17">
+      <c r="A52" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>123</v>
+      </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:17">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
+      <c r="H52" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q52" s="46"/>
+    </row>
+    <row r="53" ht="51" customHeight="1" spans="1:17">
+      <c r="A53" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:17">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21"/>
+      <c r="H53" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q53" s="46"/>
+    </row>
+    <row r="54" ht="46" customHeight="1" spans="1:17">
+      <c r="A54" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>128</v>
+      </c>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:17">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
+      <c r="H54" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q54" s="46"/>
+    </row>
+    <row r="55" ht="45" customHeight="1" spans="1:17">
+      <c r="A55" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>131</v>
+      </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:17">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
+      <c r="H55" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q55" s="46"/>
+    </row>
+    <row r="56" ht="32" customHeight="1" spans="1:17">
+      <c r="A56" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>134</v>
+      </c>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
+      <c r="H56" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q56" s="46"/>
     </row>
     <row r="57" customHeight="1" spans="1:17">
       <c r="A57" s="20"/>
@@ -2943,54 +3971,66 @@
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="42"/>
     </row>
     <row r="58" customHeight="1" spans="1:17">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:17">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21"/>
+      <c r="A58" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+    </row>
+    <row r="59" ht="51" customHeight="1" spans="1:17">
+      <c r="A59" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>139</v>
+      </c>
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
+      <c r="H59" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
     </row>
     <row r="60" customHeight="1" spans="1:17">
       <c r="A60" s="20"/>
@@ -3000,44 +4040,824 @@
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:17">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-    </row>
-    <row r="62" customHeight="1" spans="15:15">
-      <c r="O62" s="2">
-        <f>COUNTIF(O2:O61,"〇")</f>
-        <v>0</v>
-      </c>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+    </row>
+    <row r="61" ht="15" customHeight="1" spans="1:17">
+      <c r="A61" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+    </row>
+    <row r="62" ht="13" customHeight="1" spans="1:17">
+      <c r="A62" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+    </row>
+    <row r="63" ht="30" customHeight="1" spans="1:17">
+      <c r="A63" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="45"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="42"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:17">
+      <c r="A64" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
+      <c r="Q64" s="42"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:17">
+      <c r="A65" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="42"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:17">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="42"/>
+      <c r="Q66" s="42"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:17">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="42"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:17">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
+      <c r="Q68" s="42"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:17">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:17">
+      <c r="A70" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="43"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="43"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:17">
+      <c r="A71" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
+      <c r="Q71" s="42"/>
+    </row>
+    <row r="72" ht="33" customHeight="1" spans="1:17">
+      <c r="A72" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+    </row>
+    <row r="73" ht="34" customHeight="1" spans="1:17">
+      <c r="A73" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:17">
+      <c r="A74" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q74" s="50"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:17">
+      <c r="A75" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43"/>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="43"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:17">
+      <c r="A76" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="42"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:17">
+      <c r="A77" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="45"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="45"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
+      <c r="Q77" s="42"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:17">
+      <c r="A78" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="23"/>
+      <c r="C78" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43"/>
+      <c r="P78" s="43"/>
+      <c r="Q78" s="43"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:17">
+      <c r="A79" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
+      <c r="Q79" s="42"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:17">
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
+      <c r="Q80" s="42"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:17">
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="42"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:17">
+      <c r="A82" s="20"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="42"/>
+      <c r="Q82" s="42"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:17">
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
+      <c r="Q83" s="42"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:17">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
+      <c r="Q84" s="42"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:17">
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="42"/>
+      <c r="Q85" s="42"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:17">
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="42"/>
+      <c r="Q86" s="42"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:17">
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
+      <c r="Q87" s="42"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:17">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="42"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:17">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="42"/>
+      <c r="O89" s="42"/>
+      <c r="P89" s="42"/>
+      <c r="Q89" s="42"/>
+    </row>
+    <row r="90" customHeight="1" spans="1:17">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="26"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="42"/>
+      <c r="Q90" s="42"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:17">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="42"/>
+      <c r="O91" s="42"/>
+      <c r="P91" s="42"/>
+      <c r="Q91" s="42"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:17">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="42"/>
+      <c r="P92" s="42"/>
+      <c r="Q92" s="42"/>
+    </row>
+    <row r="93" customHeight="1" spans="1:17">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="42"/>
+      <c r="O93" s="42"/>
+      <c r="P93" s="42"/>
+      <c r="Q93" s="42"/>
+    </row>
+    <row r="94" customHeight="1" spans="1:17">
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="26"/>
+      <c r="N94" s="42"/>
+      <c r="O94" s="42"/>
+      <c r="P94" s="42"/>
+      <c r="Q94" s="42"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:17">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="26"/>
+      <c r="N95" s="42"/>
+      <c r="O95" s="42"/>
+      <c r="P95" s="42"/>
+      <c r="Q95" s="42"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:17">
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
+      <c r="Q96" s="42"/>
+    </row>
+    <row r="97" customHeight="1" spans="1:17">
+      <c r="A97" s="20"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="26"/>
+      <c r="N97" s="42"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="42"/>
+      <c r="Q97" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="176">
+  <mergeCells count="287">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="C2:E2"/>
@@ -3110,10 +4930,13 @@
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="H26:M26"/>
+    <mergeCell ref="P26:Q26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:M27"/>
+    <mergeCell ref="P27:Q27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="H28:M28"/>
+    <mergeCell ref="P28:Q28"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="H29:M29"/>
     <mergeCell ref="P29:Q29"/>
@@ -3213,14 +5036,129 @@
     <mergeCell ref="C61:G61"/>
     <mergeCell ref="H61:M61"/>
     <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:M62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:M63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:M64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:M65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:M67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:M68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:M69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:M70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:M71"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:M72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:M73"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:M75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:M76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:M77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:M78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:M79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:M80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:M81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:M82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:M83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:M84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:M85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:M86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:M87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:M88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:M89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:M90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:M91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:M92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:M93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:M94"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:M95"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:M96"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:M97"/>
+    <mergeCell ref="P97:Q97"/>
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" display="https://127.0.0.1にアクセスする" tooltip="https://127.0.0.1にアクセスする"/>
+    <hyperlink ref="H5" r:id="rId3" display="TOPページにアクセスする" tooltip="https://127.0.0.1にアクセスする"/>
+    <hyperlink ref="H43" r:id="rId4" display="エラーテスト用リンクをクリックする。期待する結果：エラーページの表示" tooltip="https://127.0.0.1/test_exception"/>
+    <hyperlink ref="H6" r:id="rId5" display="https://127.0.0.1"/>
+    <hyperlink ref="H63" r:id="rId4" display="期待する結果：正常表示している" tooltip="https://127.0.0.1/test_exception"/>
+    <hyperlink ref="H64" r:id="rId4" display="注文（自分のみ）が確認できるか？" tooltip="https://127.0.0.1/test_exception"/>
+    <hyperlink ref="H77" r:id="rId4" display="注文（全会社から）が確認できるか？" tooltip="https://127.0.0.1/test_exception"/>
+    <hyperlink ref="H65" r:id="rId4" display="注文の値が正常であるか？" tooltip="https://127.0.0.1/test_exception"/>
   </hyperlinks>
   <pageMargins left="0.236220472440945" right="0.236220472440945" top="0.31496062992126" bottom="0.275590551181102" header="0.354330708661417" footer="0.15748031496063"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
